--- a/MATLAB Optimization/Optimization.xlsx
+++ b/MATLAB Optimization/Optimization.xlsx
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,19 +399,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>24.1</v>
+        <v>9.39</v>
       </c>
       <c r="D2">
-        <v>118.5</v>
+        <v>14.04</v>
       </c>
       <c r="E2">
-        <v>996.73</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -419,33 +419,152 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>24.1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>118.5</v>
       </c>
       <c r="E3">
-        <v>5175.8900000000003</v>
+        <v>996.73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>9.39</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>546</v>
+        <v>5175.8900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2</v>
+      </c>
+      <c r="B5">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>80.667299999999997</v>
+      </c>
+      <c r="D5">
+        <v>171.93</v>
+      </c>
+      <c r="E5">
+        <v>1541.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.2</v>
+      </c>
+      <c r="B6">
+        <v>320</v>
+      </c>
+      <c r="C6">
+        <v>39.65</v>
+      </c>
+      <c r="D6">
+        <v>95.87</v>
+      </c>
+      <c r="E6">
+        <v>2865.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.2</v>
+      </c>
+      <c r="B7">
+        <v>640</v>
+      </c>
+      <c r="C7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>45.84</v>
+      </c>
+      <c r="E7">
+        <v>3467.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.3</v>
+      </c>
+      <c r="B8">
+        <v>640</v>
+      </c>
+      <c r="C8">
+        <v>23.97</v>
+      </c>
+      <c r="D8">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="E8">
+        <v>746.41899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.3</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>11.71</v>
+      </c>
+      <c r="D9">
+        <v>20.64</v>
+      </c>
+      <c r="E9">
+        <v>889.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.3</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10">
+        <v>7.64</v>
+      </c>
+      <c r="D10">
+        <v>21.59</v>
+      </c>
+      <c r="E10">
+        <v>2337.5100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.4</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>2.11</v>
+      </c>
+      <c r="D11">
+        <v>6.07</v>
+      </c>
+      <c r="E11">
+        <v>911.21</v>
       </c>
     </row>
   </sheetData>

--- a/MATLAB Optimization/Optimization.xlsx
+++ b/MATLAB Optimization/Optimization.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,8 @@
         <v>14.04</v>
       </c>
       <c r="E2">
-        <v>546</v>
+        <f>546/100</f>
+        <v>5.46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -419,152 +420,71 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>118.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>996.73</v>
+        <f>5175.89/100</f>
+        <v>51.758900000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>26.13</v>
       </c>
       <c r="E4">
-        <v>5175.8900000000003</v>
+        <f>4287.09/100</f>
+        <v>42.870899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B5">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>80.667299999999997</v>
+        <v>11.71</v>
       </c>
       <c r="D5">
-        <v>171.93</v>
+        <v>20.64</v>
       </c>
       <c r="E5">
-        <v>1541.19</v>
+        <f>889.85/100</f>
+        <v>8.8985000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B6">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>39.65</v>
+        <v>2.11</v>
       </c>
       <c r="D6">
-        <v>95.87</v>
+        <v>6.07</v>
       </c>
       <c r="E6">
-        <v>2865.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.2</v>
-      </c>
-      <c r="B7">
-        <v>640</v>
-      </c>
-      <c r="C7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D7">
-        <v>45.84</v>
-      </c>
-      <c r="E7">
-        <v>3467.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.3</v>
-      </c>
-      <c r="B8">
-        <v>640</v>
-      </c>
-      <c r="C8">
-        <v>23.97</v>
-      </c>
-      <c r="D8">
-        <v>40.119999999999997</v>
-      </c>
-      <c r="E8">
-        <v>746.41899999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.3</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>11.71</v>
-      </c>
-      <c r="D9">
-        <v>20.64</v>
-      </c>
-      <c r="E9">
-        <v>889.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.3</v>
-      </c>
-      <c r="B10">
-        <v>4000</v>
-      </c>
-      <c r="C10">
-        <v>7.64</v>
-      </c>
-      <c r="D10">
-        <v>21.59</v>
-      </c>
-      <c r="E10">
-        <v>2337.5100000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.4</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>2.11</v>
-      </c>
-      <c r="D11">
-        <v>6.07</v>
-      </c>
-      <c r="E11">
-        <v>911.21</v>
+        <f>911.21/100</f>
+        <v>9.1120999999999999</v>
       </c>
     </row>
   </sheetData>
